--- a/PLFP Research Article.xlsx
+++ b/PLFP Research Article.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="158">
   <si>
     <t>Title of the article</t>
   </si>
@@ -59,12 +59,11 @@
     <t>They propose a new programming abstraction called Uncertain T embedded into languages, such as C#, C++, Java, Python, and JavaScript.</t>
   </si>
   <si>
-    <t>
-1.Applications that consume estimates use familiar discrete operations for their estimates  2.simple abstractions that help developers face
+    <t>1.Applications that consume estimates use familiar discrete operations for their estimates  2.simple abstractions that help developers face
 pervasive correctness, 3. Uncertain T for GPS sensor navigation</t>
   </si>
   <si>
-    <t> Lazy evaluation and Uncertain &lt;T&gt;</t>
+    <t>Lazy evaluation and Uncertain &lt;T&gt;</t>
   </si>
   <si>
     <t>Algorithmic Analysis of Qualitative and Quantitative Termination Problems for Affine Probabilistic Programs</t>
@@ -85,7 +84,7 @@
     <t>Encoding of the conditions (C1–C4) for an LRSM into a set of universally quantified formulae.</t>
   </si>
   <si>
-    <t> 1.After compiling the code the machine will give the probability that weather you code get terminated or not.
+    <t>1.After compiling the code the machine will give the probability that weather you code get terminated or not.
 2.If they is high probability that the code goes for infinite loop it will show it as error.
 3.Estimation of running time of the code.</t>
   </si>
@@ -169,13 +168,13 @@
 sets that fall within the MEM+DET or MEM+CV fragments.</t>
   </si>
   <si>
-    <t>proximity hyper-graph </t>
-  </si>
-  <si>
-    <t>  Reducing Crash Recoverability to Reachability</t>
-  </si>
-  <si>
-    <t> http://www.cs.columbia.edu/~junfeng/papers/crash-popl16.pdf </t>
+    <t>proximity hyper-graph</t>
+  </si>
+  <si>
+    <t>Reducing Crash Recoverability to Reachability</t>
+  </si>
+  <si>
+    <t>http://www.cs.columbia.edu/~junfeng/papers/crash-popl16.pdf</t>
   </si>
   <si>
     <t>various leveled formal model ofwhat it implies for a system to be accident recoverable. Our model catches the recoverability of numerous genuine projects, incorporating those in our assessment which utilize advanced recuperation calculations, for example, shadow paging and compose ahead logging. Next, we present a novel system able to do naturally demonstrating that a project effectively recoups from an accident by means of a decrease to reachability.</t>
@@ -190,14 +189,13 @@
     <t>crash recuperation bugs can be especially disappointing in light of the fact that, notwithstanding when it has been formally demonstrated for a system that it fulfills a property, the confirmation is thwarted by these outer occasions that crash and restart the project</t>
   </si>
   <si>
-    <t>Optimized cross product,quantified invariants, model of the file system
-</t>
+    <t>Optimized cross product,quantified invariants, model of the file system</t>
   </si>
   <si>
     <t>robotized instrument for demonstrating that projects effectively recuperate to their unique practices in case of remotely affected accidents through a novel decrease of end and reenactment to reachability</t>
   </si>
   <si>
-    <t>Transforming Spreadsheet Data Types using Examples </t>
+    <t>Transforming Spreadsheet Data Types using Examples</t>
   </si>
   <si>
     <t>http://people.csail.mit.edu/rishabh/papers/popl16-semantic.pdf</t>
@@ -253,7 +251,7 @@
 using Predictive Modeling</t>
   </si>
   <si>
-    <t>  http://www.cs.technion.ac.il/~yahave/papers/popl16.pdf</t>
+    <t>http://www.cs.technion.ac.il/~yahave/papers/popl16.pdf</t>
   </si>
   <si>
     <t>One of the major hurdles in reverse engineering binaries
@@ -272,14 +270,13 @@
     <t>Fframework for statically predicting likely types of objects in stripped binaries, and use it to determine likely targets of indirect calls.</t>
   </si>
   <si>
-    <t>
-A debug tool to debug the code automatically.</t>
+    <t>A debug tool to debug the code automatically.</t>
   </si>
   <si>
     <t>static binary analysis</t>
   </si>
   <si>
-    <t>The Hardness of Data Packing </t>
+    <t>The Hardness of Data Packing</t>
   </si>
   <si>
     <t>http://www.cs.rochester.edu/u/rlavaee/packing-popl16.pdf</t>
@@ -296,10 +293,273 @@
 minimization problem cannot be efficiently approximated.</t>
   </si>
   <si>
-    <t>1.Data packing, 2.cache block utilization, 3.proximity hyper-graph </t>
+    <t>1.Data packing, 2.cache block utilization, 3.proximity hyper-graph</t>
   </si>
   <si>
     <t>Using a reduction from 3SAT that even for a 5-block cache, an approximate data packing solution cannot be efficiently computed, unless P = NP. Furthermore, we showed by reducing from 2SAT-MIN-DEL, that even for a 3-block cache, the existence of a constant factor approximation algorithm disproves a well known conjecture.</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2843895</t>
+  </si>
+  <si>
+    <t>Figuring has entered the period of indeterminate information, in which equipment  furthermore, programming produce and reason about appraisals. Applications  use gauges from sensors, machine adapting, huge information, people,  also, rough equipment and programming. Sadly, create ers face pervasive rightness, programmability, and improvementissues because of evaluations</t>
+  </si>
+  <si>
+    <t>Programming with estimates, Probabilistic program-ming, Bayesian logic, Lazy evaluation</t>
+  </si>
+  <si>
+    <t>applications that consume estimates use familiar operations on dis-crete types; an overloaded conditional operator that implementshypothesis tests with which applications control false positivesand negatives; and compositional operators to express domainknowledge about estimates.</t>
+  </si>
+  <si>
+    <t>open source version of the C# implementa-tion ofUncertainhTiand welcome users, suggestions, and contri-butions</t>
+  </si>
+  <si>
+    <t>Languages, Verification,</t>
+  </si>
+  <si>
+    <t>http://cs.yale.edu/homes/ejk/papers/cr.pdf</t>
+  </si>
+  <si>
+    <t>hierarchical specificationof crash recoverability. The idea is that, after a crash, a re-executedprogram should behave the “same” as the originaluncrashed pro-gram from an initial state. More precisely, a proof of recoverabilitymeans that, after a crash, the program eventually will reach a statethat is observationally equivalent to (simulates) some state that wasvisited before the crash (i.e.in the trace’s prefix)</t>
+  </si>
+  <si>
+    <t>Simultaneous with our work, Chen et al. [7] depict their ef-fortifications building up the initially checked filesystem, and a particular rationale called Crash Hoare Logic (CHL). Their work, similar to our own, is worried with the recoverability issue and, specifically, for filesystems with nonconcurrent plate operations. From a wide per-spective, our works are integral:</t>
+  </si>
+  <si>
+    <t>Separation logic, model checking</t>
+  </si>
+  <si>
+    <t>To start with, the most pessimistic scenario execution can be displayed with positive cases as demonstrated as follows. Second, when utilizing runtime checks, for example in code contracts or logged off test suites, negative occurrences more often than not prompt system end since they demonstrate that some pre-or postcondition</t>
+  </si>
+  <si>
+    <t>general fixed point algorithm that decides model checking in symbolic-heap separation logic with user-defined inductive predicates</t>
+  </si>
+  <si>
+    <t>Separation logic, model checking,</t>
+  </si>
+  <si>
+    <t>Model Checking for Symbolic-Heap Separation Logic with Inductive Predicates</t>
+  </si>
+  <si>
+    <t>http://www0.cs.ucl.ac.uk/staff/J.Brotherston/POPL16/SL_ID_model_checking.pdf</t>
+  </si>
+  <si>
+    <t>permits inductive predicates to signify potentially exhaust pile reminder   ries, and any stack unimportantly breaks down into itself consolidated with  the vacant store, a credulous top-down methodology in light of backtrack-   ing pursuit will by and large neglect to end. Rather, we utilize a   base up methodology in view of processing the altered purpose of all "sub-   models" of the first memory that fulfill one of the characterized in-  ductive predicates</t>
+  </si>
+  <si>
+    <t>hunt will for the most part neglect to end. Rather, we utilize a base up methodology taking into account registering the altered purpose of all "sub-models" of the first memory that fulfill one of the characterized in-ductive predicates. The urgent knowledge is that, for any given model checking question, the observers for the existentially evaluated vari-ables can be looked over an altered arrangement of qualities</t>
+  </si>
+  <si>
+    <t>Separation logic</t>
+  </si>
+  <si>
+    <t>size, the square size, associativity, the substitution plan, and the entrance inactivity. Also, today's mind boggling and progressive memory frameworks, which comprise of various levels of stores with various parameters and points of interest, make the issue substantially more difficult. For the most part, the store cognizant information arrangement (information format) issue is communicated as takes after. Given all the insights about the reserve (counting its information substitution strategy) and the grouping of references to information objects of known sizes</t>
+  </si>
+  <si>
+    <t>the basis for many program analysis problems, such as data race detection and determinism checking, and researchers have devised MHP analyses for a variety of programming models</t>
+  </si>
+  <si>
+    <t>Data packing, cache block utilization</t>
+  </si>
+  <si>
+    <t>a modular and effective technique for testing composed concurrent operations that uses a specialized adversary that leverages commutativity information of the underlying collections to guide execution towards linearizability violations. The technique was implemented in a tool called COLT</t>
+  </si>
+  <si>
+    <t>Hygienic macro expansion is a successful, decades-old technology in Racket,Binding techniques for macro expansion</t>
+  </si>
+  <si>
+    <t>, block reuse interval</t>
+  </si>
+  <si>
+    <t>Algorithmic Analysis of Qualitative and Quantitative Termination Problems for Affine Probabilistic Programs ∗</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/1510.08517</t>
+  </si>
+  <si>
+    <t>Alongside likelihood, another basic perspective in demonstrating is non-determinism. In projects, there can be two sorts of non-determinism: (i) de-monic non-determinism that is antagonistic (e.g., to be set out to guarantee non-end or to expand the normal end time, and so on.) and (ii) saintly non-determinism that is good (e.g., to be set out to guarantee end or to diminish the normal ter-mination time, and so on.). The devilish non-determinism is fundamental by and large, and a great illustration is reflection: for proficient static examination of substantial projects,</t>
+  </si>
+  <si>
+    <t>Cutting edge static investigation produces fantastic evaluations of most extreme stack size and the testing approach DTall can nearly coordinate the aftereffects of the static examination</t>
+  </si>
+  <si>
+    <t>Probabilistic Programs, Termination</t>
+  </si>
+  <si>
+    <t>approach that decreases the weight on the developer who wishes to actualize improvements since advancement occasions are much simpler to create than enhancement rules</t>
+  </si>
+  <si>
+    <t>a methodology for creating foundational verification conveying code taking into account syntactic soundness proofs</t>
+  </si>
+  <si>
+    <t>sort coordinated fruition of incomplete expressions can viably fill in short code scraps that are sufficiently confused to be hard to find utilizing code finish.</t>
+  </si>
+  <si>
+    <t>Portrays a way to deal with showing program plan that quantifiably enhances understudy execution on variable based math word issues from institutionalized science exams</t>
+  </si>
+  <si>
+    <t>To give a reliable work of the wrote sentence structure of sort hypothesis in a first request setting as in our grammar is finitary</t>
+  </si>
+  <si>
+    <t>Macros, hygiene,</t>
+  </si>
+  <si>
+    <t>www.cs.utah.edu/~mflatt/scope-sets/</t>
+  </si>
+  <si>
+    <t>an area particular dialect with probabilistic semantics that is parameterized with explanatory information sort definitions.</t>
+  </si>
+  <si>
+    <t>This change to the expander's basic model of restricting can influence the importance of existing Racket macros. A little sum ofincompatibility appears to be adequate and even alluring in the event that it empowers simpler thinking by and large. Extraordinary incompatibilities would be sus-pect, notwithstanding, both in light of the fact that the old expander has demonstrated powerful and on the grounds that huge changes to code base would be unfeasible. Con-sistent with those points, simply design based macros work with the new expander the same as with the old one,</t>
+  </si>
+  <si>
+    <t>A segment's usage dialect may give the full usefulness of Racket, or it might bolster a little space particular documentation.</t>
+  </si>
+  <si>
+    <t>Hygienic large scale development is a fruitful, decades-old innovation in Racket and the more extensive Scheme people group. Hygienic macros have likewise found a spot in some different dialects, however the troubles of determining cleanliness, understanding large scale degree, and execute ing a full scale expander have without a doubt been an obstruction to the more extensive reception and utilization of hygienic macros.</t>
+  </si>
+  <si>
+    <t>binding, scope</t>
+  </si>
+  <si>
+    <t>dl.acm.org/citation.cfm?id=2837674</t>
+  </si>
+  <si>
+    <t>We assume the function was compiled using Microsoft’s Visual
+Studio compiler [2] and uses the application binary interface (ABI)
+set by the compiler for 32-bit x86 binaries (see Section 5 for
+details). For this example, we use unoptimized assembly code as
+it is easier to understand. However, we note that our technique also
+works on optimized code and was evaluated on optimized binaries.</t>
+  </si>
+  <si>
+    <t>call sites or types to objects. We address this challenge,
+which we believe to be very valuable in practice. We do not attempt
+to recover all aggregate structures in the program, or to identify
+all variables. Nor do we try to force a single target for each call
+site or a single type for each object.</t>
+  </si>
+  <si>
+    <t>www.csa.iisc.ernet.in/TR/2014/3/paper.pdf</t>
+  </si>
+  <si>
+    <t>The capacity enhancement issue for exhibits can be seen as getting the cluster along one or more measurements to altered sizes, or contracting along bearings unique in relation to the headings along which the exhibit is initially listed.</t>
+  </si>
+  <si>
+    <t>contraction, polyhedral framework</t>
+  </si>
+  <si>
+    <t>people.csail.mit.edu/rishabh/papers/popl16-semantic.pdf</t>
+  </si>
+  <si>
+    <t>programming-by-example (PBE) framework of
+cleaning data types that learns the desired cleaning transformation
+automatically from a set of input-output examples, and handles
+non-uniform, unstructured, and ambiguous data. There are two
+kinds of users of our framework: 1) end-users (e.g. Excel users),
+and 2) data type designers (e.g. Excel product team).</t>
+  </si>
+  <si>
+    <t>spreadsheet of 900 entries and only 20 of them returned check,
+and this made the user ecstatic. Since we did not have access to
+the original user spreadsheet, we created a set of 910 random input
+date strings uniformly distributed in the seven different formats and
+tested our system on it. We found 62 of them (7%) resulted in high-
+lighting because of multiple similarly</t>
+  </si>
+  <si>
+    <t>It also computes the derived
+field values for which the required source fields are available. The
+FromCan function performs the inverse operation of converting a
+data type instance in its canonical form to an instance where the
+fields take values from a given set of sub-fields. For example, the
+ToCan function</t>
+  </si>
+  <si>
+    <t>Programming languages like C# and SQL provide custom for-
+mat strings for formatting these data types. These format strings
+are quite rich and can handle a wide variety of data type represen-
+tations. There are two main drawbacks of using format strings for
+data cleaning.</t>
+  </si>
+  <si>
+    <t>Programming By Examples, Noisy Examples</t>
+  </si>
+  <si>
+    <t>Efficient storage management for array variables in a program requires that memory
+locations be reused as much as possible, thereby minimizing their storage require-
+ment. Consider a statement, which writes to an array, appearing within an arbitrar-
+ily nested loop.</t>
+  </si>
+  <si>
+    <t>The scope of programs that we consider for this work is a class of codes known as
+affine loop nests. Affine loop nests are sequences of arbitrarily nested loops (perfect or
+imperfect) where data accesses and loop bounds are affine functions of loop iterators
+and program parameters (symbols which do not vary within the loop nest).</t>
+  </si>
+  <si>
+    <t>Compilers, storage mapping optimization</t>
+  </si>
+  <si>
+    <t>Another factor which needs to be considered while determining the storage hyper-
+planes is the storage size of the resulting modulo storage mapping. The storage size of
+a modulo storage mapping determined using the successive modulo technique is com-
+puted as the product of the contraction moduli. In the successive modulo technique, the
+contraction moduli are computed along the canonical bases. Essentially, the canonical
+bases also serve as the storage hyperplane normals.</t>
+  </si>
+  <si>
+    <t>Automatic solutions to the intra-array storage optimization problem are crucial for
+high-level and domain-specific language compilers. We cast the problem as one of array
+space partitioning where each partition uses the same memory location. This allowed
+us to develop an algorithm to find the right orientations for the array partitioning
+Hyperplanes.</t>
+  </si>
+  <si>
+    <t>memory optimization</t>
+  </si>
+  <si>
+    <t>Uncertain&lt;T&gt;: A First-Order Type for Uncertain Data</t>
+  </si>
+  <si>
+    <t>src.acm.org/2014/JamesBornholt.pdf</t>
+  </si>
+  <si>
+    <t>Model to examine disappointments and shortcomings for investigating reason which characterize "disappointment modes" and " disappointment sorts to distinguish the presence of project examination" and the way of system disappointments individually.</t>
+  </si>
+  <si>
+    <t>expand the CWM system and encode a dialect supporting completely reflexive sort examination into this structure. The dialect depends on our past work as needs be, it presents polymorphism at the kind level to handle the examination of evaluated sorts.</t>
+  </si>
+  <si>
+    <t>speculation and pointed out that our lifting can show the connection between's the two parts of time and likelihood as opposed to considering them as autonomous of each other.</t>
+  </si>
+  <si>
+    <t>relating low-level assaults against the execution to connections in the abnormal state programming dialect, and by building up full reflection results</t>
+  </si>
+  <si>
+    <t>UPC, Sasnauskas</t>
+  </si>
+  <si>
+    <t>An object-oriented probabilistic programming language.
+Technical report, Charles River Analytics, 2009.</t>
+  </si>
+  <si>
+    <t>http://research.microsoft.com/infernet.</t>
+  </si>
+  <si>
+    <t>new idea of live deliberations to negate end utilizing over-estimate + shut repeat sets</t>
+  </si>
+  <si>
+    <t>how to accomplish an efficient procedure model to restrict issues in investigating?</t>
+  </si>
+  <si>
+    <t>advancement of a denotational semantics of (probabilistic renditions of) the lambda-analytics mirroring the operational semantics</t>
+  </si>
+  <si>
+    <t>Meta-calculation engenders case construct requirements in light of an expression to its subexpressions by utilizing related witness capacities which basically catch the opposite semantics of the basic administrator.</t>
+  </si>
+  <si>
+    <t>Basic semantics, compiler and runtime support &amp; how to reason about programs with probalistic outcomes</t>
   </si>
 </sst>
 </file>
@@ -315,7 +575,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -337,30 +596,29 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Cambria"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -408,7 +666,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -425,10 +683,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,15 +691,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,8 +730,8 @@
   </sheetPr>
   <dimension ref="A1:AA65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -534,7 +796,7 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -543,13 +805,13 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -563,7 +825,7 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -575,7 +837,7 @@
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -592,7 +854,7 @@
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -618,13 +880,13 @@
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -635,28 +897,28 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -664,7 +926,7 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -679,7 +941,7 @@
       <c r="F7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -687,25 +949,25 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -719,9 +981,10 @@
       <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="D9" s="0"/>
       <c r="E9" s="1" t="s">
         <v>67</v>
       </c>
@@ -736,28 +999,28 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="36.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -765,26 +1028,326 @@
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="40.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -798,6 +1361,9 @@
     <hyperlink ref="B9" r:id="rId5" display="http://www.csa.iisc.ernet.in/TR/2014/3/paper.pdf"/>
     <hyperlink ref="B10" r:id="rId6" display="http://www.cs.technion.ac.il/~yahave/papers/popl16.pdf"/>
     <hyperlink ref="B11" r:id="rId7" display="http://www.cs.rochester.edu/u/rlavaee/packing-popl16.pdf"/>
+    <hyperlink ref="B21" r:id="rId8" display="www.csa.iisc.ernet.in/TR/2014/3/paper.pdf"/>
+    <hyperlink ref="A22" r:id="rId9" display="Uncertain&lt;T&gt;: A First-Order Type for Uncertain Data"/>
+    <hyperlink ref="B23" r:id="rId10" display="http://research.microsoft.com/infernet"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/PLFP Research Article.xlsx
+++ b/PLFP Research Article.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="292">
   <si>
     <t>Title of the article</t>
   </si>
@@ -353,6 +353,12 @@
     <t>Separation logic</t>
   </si>
   <si>
+    <t>what it means to a program crash recoverable if it provides a hierarchal model?</t>
+  </si>
+  <si>
+    <t>binding, scope</t>
+  </si>
+  <si>
     <t>size, the square size, associativity, the substitution plan, and the entrance inactivity. Also, today's mind boggling and progressive memory frameworks, which comprise of various levels of stores with various parameters and points of interest, make the issue substantially more difficult. For the most part, the store cognizant information arrangement (information format) issue is communicated as takes after. Given all the insights about the reserve (counting its information substitution strategy) and the grouping of references to information objects of known sizes</t>
   </si>
   <si>
@@ -417,9 +423,6 @@
   </si>
   <si>
     <t>Hygienic large scale development is a fruitful, decades-old innovation in Racket and the more extensive Scheme people group. Hygienic macros have likewise found a spot in some different dialects, however the troubles of determining cleanliness, understanding large scale degree, and execute ing a full scale expander have without a doubt been an obstruction to the more extensive reception and utilization of hygienic macros.</t>
-  </si>
-  <si>
-    <t>binding, scope</t>
   </si>
   <si>
     <t>dl.acm.org/citation.cfm?id=2837674</t>
@@ -440,7 +443,7 @@
 site or a single type for each object.</t>
   </si>
   <si>
-    <t>www.csa.iisc.ernet.in/TR/2014/3/paper.pdf</t>
+    <t>speculation and pointed out that our lifting can show the connection between's the two parts of time and likelihood as opposed to considering them as autonomous of each other.</t>
   </si>
   <si>
     <t>The capacity enhancement issue for exhibits can be seen as getting the cluster along one or more measurements to altered sizes, or contracting along bearings unique in relation to the headings along which the exhibit is initially listed.</t>
@@ -486,6 +489,9 @@
     <t>Programming By Examples, Noisy Examples</t>
   </si>
   <si>
+    <t>www.csa.iisc.ernet.in/TR/2014/3/paper.pdf</t>
+  </si>
+  <si>
     <t>Efficient storage management for array variables in a program requires that memory
 locations be reused as much as possible, thereby minimizing their storage require-
 ment. Consider a statement, which writes to an array, appearing within an arbitrar-
@@ -531,9 +537,6 @@
     <t>expand the CWM system and encode a dialect supporting completely reflexive sort examination into this structure. The dialect depends on our past work as needs be, it presents polymorphism at the kind level to handle the examination of evaluated sorts.</t>
   </si>
   <si>
-    <t>speculation and pointed out that our lifting can show the connection between's the two parts of time and likelihood as opposed to considering them as autonomous of each other.</t>
-  </si>
-  <si>
     <t>relating low-level assaults against the execution to connections in the abnormal state programming dialect, and by building up full reflection results</t>
   </si>
   <si>
@@ -560,6 +563,451 @@
   </si>
   <si>
     <t>Basic semantics, compiler and runtime support &amp; how to reason about programs with probalistic outcomes</t>
+  </si>
+  <si>
+    <t>A.V. Aho, R. Sethi, and J.D. Ullman.
+Compiler: Princi-
+ples, Techniques and Tools
+. Addison-Wesley, 1986</t>
+  </si>
+  <si>
+    <t>the problem of comparing and minimizing ODEs automatically that are influenced by traditional approaches in the theory of programming</t>
+  </si>
+  <si>
+    <t>differential equivalence relations for a basic intermediate language, for which we have decidability results, that can be targeted by a class of highlevel specifications</t>
+  </si>
+  <si>
+    <t>Quantitative Equivalence Relations, Satisfiability Modulo Theory, Ordinary Differential Equations, Partition Refinement</t>
+  </si>
+  <si>
+    <t>basic formalism called IDOL—Intermediate Drift Oriented Language that essentially gives a syntax for the drifts, Drift Oriented Language. It essentially gives a syntax for the drifts, covering a class of nonlinear ODEs for which the reasoning is decidable, hence amenable to automatic treatment</t>
+  </si>
+  <si>
+    <t>validity checks of different formulae</t>
+  </si>
+  <si>
+    <t>a generic framework for reasoning about languages that have ordinary differential equations (ODEs) as their quantitative semantics</t>
+  </si>
+  <si>
+    <t>M. Antoniotti and A. G ̈oll ̈u. SHIFT and SMART-AHS:A language for hybrid system engineering modeling andsimulation. In Ramming [64], pages 171–182.</t>
+  </si>
+  <si>
+    <t>program structures dictated by object capabilities and compare these against those that ensue from feature-oriented programming</t>
+  </si>
+  <si>
+    <t>Deduction of ADT transformations,Domain specific languages replaces general purpose, Advent of more tools for data driven domain specific languages,parameterize FlashMeta by a ranking function h, which is a quantitative constraint over the program space.</t>
+  </si>
+  <si>
+    <t>Optimization Coaching, Visualization</t>
+  </si>
+  <si>
+    <t>Debugging paradigm which is based on dynamic program slicing and execution backtracking techniques, that easily lends itself to automation and also it is based on experience with using these techniques to debug software</t>
+  </si>
+  <si>
+    <t>IDE-plugin</t>
+  </si>
+  <si>
+    <t>G. Arango. Domain analysis: From art form to engi-neering discipline. InFifth International Workshop onSoftware Specification and Design, pages 152–159, May1989. Appeared as ACM SIGSOFT Engineering Notes14(3).</t>
+  </si>
+  <si>
+    <t>Outlines a framework to synthesize domain analysismethods, and to compare between different methods. Thepaper advocates an incremental, evolving approach to-wards developing domain models</t>
+  </si>
+  <si>
+    <t>Discusses a domain-specific programming style for thedomain of partial differential equations, using an ex-pression style directly obtained from the underlying al-gebraic theory. The use of this style permits optimiza-tions beyond the scope of current compiler optimiza-tions.</t>
+  </si>
+  <si>
+    <t>SA- Tree technique </t>
+  </si>
+  <si>
+    <t>Describes the language Mawl that is intended for im-plementing form-based information services for differ-ent devices (web browser, interactive voice response ser-vice). The main contributions of this language are: (1)separation of user-interface code and service logic, (2)static type checking, (3) device-independence, (4) auto-matic generation of low-level CGI code, (5) automaticgeneration of HTML templates, and (6) automatic gen-eration of usage statistics</t>
+  </si>
+  <si>
+    <t> Adomain-specific language for form-based services. InDSL-IEEE [</t>
+  </si>
+  <si>
+    <t>homepages.cwi.nl/~paulk/publications/Sigplan00.pdf</t>
+  </si>
+  <si>
+    <t>Given a fixed-size cache, how does the performance change as we increase
+the cache block size?</t>
+  </si>
+  <si>
+    <t>Presents Khepera, a tool kit for rapid implementa-tion and long-term maintenance of DSLs via source-to-source transformation separated into three phases:parsing, AST transformation, and pretty-printing.</t>
+  </si>
+  <si>
+    <t>Program &amp; semantic analysis of programs</t>
+  </si>
+  <si>
+    <t>Envisions a framework for stepwise synthesis of domain-specific applications from informal specifications. Theframework applies search techniques to explore possiblerefinements of an initial specification, given a base ofdomain and programming knowledge (facts and heuris-tics).</t>
+  </si>
+  <si>
+    <t>Discusses how the use ofstaging(separating compile-time computations from run time ones) andmonads(forcapturing effects and actions of the target code) lead to asimple, reusable, controlable, and correct DSL method-ology.</t>
+  </si>
+  <si>
+    <t>. Domain-specific automatic program-ming.IEEE Transactions on Software Engineering,</t>
+  </si>
+  <si>
+    <t>ieeexplore.ieee.org/xpls/abs_all.jsp?arnumber=1701949</t>
+  </si>
+  <si>
+    <t>how to compute the estimate of the security of a program with respect to this notion in terms of timing leakage, and show how to use the estimate for cost optimisation ?</t>
+  </si>
+  <si>
+    <t>Introduction to a special issue on (domain-specific)object-oriented frameworks, which are defined asreusable, semi-complete applications that can be spe-cialized to produce custom applications. Covers classifi-cation, strengths and weaknesses, and future trends</t>
+  </si>
+  <si>
+    <t>Program Synthesis, Probabilistic Synthesis, Spreadsheet Programming, Programming By Examples, Noisy Examples</t>
+  </si>
+  <si>
+    <t>Reports on the design and implementation ofPromela++, a DSL for protocol construction andvalidation. Promela++ adds domain-specific constructsto restricted C, and supports validation and optimizationon the domain-level</t>
+  </si>
+  <si>
+    <t>Provides  the  material  used  for  a  course  on  DSSA,
+Domain-Specific Software Architectures, which aims at
+the reduction in time and cost of producing specific ap-
+plication systems  within  a supported domain. The pa-
+per covers key examples, architecture representation for-
+malisms,  domain  engineering,  and  the  DSSA  process</t>
+  </si>
+  <si>
+    <t>A language-based approach to protocol construction.</t>
+  </si>
+  <si>
+    <t>https://www.eecs.harvard.edu/~greg/papers/wdsl97.pdf</t>
+  </si>
+  <si>
+    <t>LPT  Kodiyak. Lists  application
+areas  of  LPTs  and benefits of  applying them.  Gives  a
+brief description of Kodiyak and reports on experience
+with it</t>
+  </si>
+  <si>
+    <t>Type inference algorithms</t>
+  </si>
+  <si>
+    <t>Demonstrates and advocates the use of “little lan-guages”. Takes PIC as an example, as well as a numberof little languages from which PIC input is generated(SCATTER, CHEM), and little languages that were usedto implement PIC (LEX, YACC, Make). Contrasts threeapproaches: interactive systems, subroutine libraries,and little languages. Discusses DSL design principles.</t>
+  </si>
+  <si>
+    <t>DSLs allow solutions to be expressed in the idiom and atthe level of abstraction of the problem domain. Conse-quently, domain experts themselves can understand, val-idate, modify, and often even develop DSL programs</t>
+  </si>
+  <si>
+    <t> Programming pearls: Little languages.Communications of the ACM,</t>
+  </si>
+  <si>
+    <t>dl.acm.org/citation.cfm?id=315691</t>
+  </si>
+  <si>
+    <t>FODA is a domain engineering approach emphasizing
+feature  analysis.  A  feature  is  defined  as  a  prominent,
+user-visible characteristic of a software system. FODA
+aims at building up a
+feature model
+, consisting of a fea-
+tures  diagram</t>
+  </si>
+  <si>
+    <t>Multi-Lingual Component Programming</t>
+  </si>
+  <si>
+    <t>Introduces the Syntax Definition Formalism SDF, the Al-gebraic Specification Formalism ASF, and their combi-nation, ASF+SDF, which can be used to describe thesyntax and semantics of (domain-specific) languages.Contains several language definition case studies.</t>
+  </si>
+  <si>
+    <t>Type classes, type-safe programming of type-indexed values in ML which is similar to term level analysis of types.</t>
+  </si>
+  <si>
+    <t>editors.Alge-braic Specification. ACM Press/Addison-Wesley,</t>
+  </si>
+  <si>
+    <t>ftp.math.utah.edu/pub/tex/bib/toc/sigplan1980.html</t>
+  </si>
+  <si>
+    <t>how to analyze the dynamics of applications such as the spread of epidemics and the propagation of influence in social networks ?</t>
+  </si>
+  <si>
+    <t>oriented programming (AOP). This technique consists in
+describing  each  aspect  (e.g.  basic  functionality,  com-
+munication,  coordination)  of  a  system’s  behaviour  in
+a (little) language that allows it to be expressed in its
+most natural form</t>
+  </si>
+  <si>
+    <t>Program Analysis, Interaction Nets, Linear Logic, Sequential &amp; parallel reductions,Time &amp; space bounds</t>
+  </si>
+  <si>
+    <t>Describes how a language based on process algebrais used in theTOOLBUScoordination architecture forbuilding heterogeneous, distributed software systems</t>
+  </si>
+  <si>
+    <t>Scope graphs,Binding resolution with amcro expansion</t>
+  </si>
+  <si>
+    <t>The discrete time TOOL-BUS—a software coordination architecture.Science ofComputer Programming</t>
+  </si>
+  <si>
+    <t>www.sciencedirect.com/science/article/pii/S016764239700021X</t>
+  </si>
+  <si>
+    <t>generating compiler optimizations from examples of concrete programs before and after improvements have been made to them</t>
+  </si>
+  <si>
+    <t>Specification of the static analysis algorithm for the offline transformation</t>
+  </si>
+  <si>
+    <t>Many object-oriented languages contain only implicitconstraints on the order of application of the methods ina class. This paper introduces the Behaviour Descrip-tion Language (BDL) which uses a process-oriented no-tation to describe this ordering. BDL is translated to C,with ESTEREL as intermediary. The resulting C code islinked with a C++ program and acts as controller forthe execution of C++ classes.</t>
+  </si>
+  <si>
+    <t>Improve the debugger's performance, FrTime language</t>
+  </si>
+  <si>
+    <t> A specialized lan-guage for per-object reactive control</t>
+  </si>
+  <si>
+    <t>ieeexplore.ieee.org/xpl/articleDetails.jsp?reload=true&amp;arnumber=798324</t>
+  </si>
+  <si>
+    <t>Programmable controllers for software-defined networks are far more flexible, but this flexibility results in more opportunities for misconfiguration and greatly complicates analysis</t>
+  </si>
+  <si>
+    <t>object-oriented frameworks. Aframework is defined as a set of classes that embodies anabstract design for solutions to a family of related prob-lems, and supports reuse at a larger granularity thanclasses. In awhite-boxframework, application-specificbehavior is obtained via method overriding or by addingnew methods to the framework’s classes</t>
+  </si>
+  <si>
+    <t>planar,3SAT,graphs, NP-complete,P-complete</t>
+  </si>
+  <si>
+    <t>Describes the language Hancock that is intended forsignature computationson the data collected from tele-phone calls. A signature is a user profile with applica-tions ranging from fraude detection to marketing. Typ-ical issues are the large volume of data, the complextraversal patterns of these data and the different lev-els of precision for signatures. Hancock is translated toC combined with several run-time libraries. The majorbenefit of this DSL is a separation of concerns (traversalpatterns, efficiency, signature computations). As a resultprogrammers can concentrate on the signature compu-tation, since the other concerns are taken care of by theDSL compiler. The major reason to design a DSL (as op-posed to using a library) were the traversal patterns thatcannot be captured in a library. The paper concludeswith a description of the design process used</t>
+  </si>
+  <si>
+    <t>thread-modular verification for model checking systems,dynamic checking</t>
+  </si>
+  <si>
+    <t>A language for processing very large-scale data.</t>
+  </si>
+  <si>
+    <t>people.cs.uchicago.edu/~amr/cv.pdf</t>
+  </si>
+  <si>
+    <t>how the abstract interpretation principle is illustrated?</t>
+  </si>
+  <si>
+    <t>g MATLAB programs are proposed and shown tobe effective. The transformations yield performance ben-efits additional to those obtained by (optimizing) compi-lation.</t>
+  </si>
+  <si>
+    <t>Provides an overview of some industrial applications ofthe language prototyping environment ASF+SDF. TheRISLA case study, involving a language for describingfinancial products, is discussed in considerable detail,covering pure RISLA, modular RISLA, and RISQUEST,a language for generating questionnaires used whencomposing new products. From a modular RISLA prod-uct description, COBOL code is generated for access-ing a library of COBOL functions providing operationson cash flows, balances, intervals, </t>
+  </si>
+  <si>
+    <t>super-optimizers,loop-unroll factors</t>
+  </si>
+  <si>
+    <t>Industrial applications ofASF+SDF. In M. Wirsing and M. Nivat, editors,Al-gebraic Methodology and Software Technology (A</t>
+  </si>
+  <si>
+    <t>homepages.cwi.nl/~paulk/publications/CC01.pdf</t>
+  </si>
+  <si>
+    <t>For concurrent and parallel languages, the may-happen-inparallel (MHP) decision problem asks, given two actions in the program, if there is an execution in which they can execute in parallel</t>
+  </si>
+  <si>
+    <t>According to a new programming
+paradigm (
+infocentrism
+) the  application semantics for
+these jargons can be programmed by providing actions
+for the constructs specific to the jargon only; the traver-
+sal semantics is inherited from the base language. Be-
+cause all jargons share the base syntax and semantics, it
+is easy to combine</t>
+  </si>
+  <si>
+    <t>Discusses the design of a DSL for parallel discrete eventsimulation. On the basis of this experience a number ofobservations are made regarding DSL design principles.Most notably, the use of a strongeffect systemis advo-cated to do static checking on the domain level, and todetermine applicability of optimizations</t>
+  </si>
+  <si>
+    <t>process-variation aware clock scheduling offers significant potential for improving performance and/or yield over traditional techniques</t>
+  </si>
+  <si>
+    <t>APOSTLE, and its approach to parallel discreteevent simulation.</t>
+  </si>
+  <si>
+    <t>www.citeulike.org/user/pnpo/article/4636643</t>
+  </si>
+  <si>
+    <t>Building on techniques for dynamic program slicing and
+program dicing, a fault localization technique for incre-
+mental spreadsheet debugging is developed. Using vari-
+ous kinds of visual clues, the technique is integrated into
+a spreadsheet environment.</t>
+  </si>
+  <si>
+    <t>concurrency, race detection</t>
+  </si>
+  <si>
+    <t>Access to the resources of the World-Wide Web is usu-ally obtained though manual browsers. Service combi-nators are intended for writing programs that reproducehuman browsing behaviour, including reactions to slowtransmission rates and various kinds of failure. Based ona concurrent programming model, the paper gives bothan informal and formal treatment of a DSL for Web com-puting</t>
+  </si>
+  <si>
+    <t>Service combinators for web
+computing. In DSL-IEEE</t>
+  </si>
+  <si>
+    <t>dl.acm.org/citation.cfm?id=316283</t>
+  </si>
+  <si>
+    <t>A language design system is presented which allows a
+user to design a DSL by selecting language features from
+menus.  After  selection,  an  implementation of  the  DSL
+can be generated. The system relies on domain design-
+ers to provide a definition of the design space, as well as
+specification components for all possible language fea-
+Tures</t>
+  </si>
+  <si>
+    <t>Prolog, logic programming system, assertions, verification, extensible languages</t>
+  </si>
+  <si>
+    <t>The problem of cache coherence occurs when localreplica of shared data are made in a distributed sys-tem in order to improve its scalability and performance.Writing the code to support coherence protocols is error-prone. This paper describes experience with the lan-guage Teapot for describing these protocols. Teapot pro-grams can be translated to (1) C code that implement</t>
+  </si>
+  <si>
+    <t>prototype tools for semantic differencing, e.g., our own CDDiff and ADDiff tools</t>
+  </si>
+  <si>
+    <t>explores the tradeoffs between semantic simplicity, the use of e_x000E_cient implementation strategies, and the exibility of language constructs and the results focus on the AME programming model</t>
+  </si>
+  <si>
+    <t>Adomain-specific language for writing cache coherenceprotocols.</t>
+  </si>
+  <si>
+    <t>ieeexplore.ieee.org/iel5/32/17351/00798322.pdf?arnumber=798322</t>
+  </si>
+  <si>
+    <t>Semantic analysi of programs which encompasses data flow analysis, data type determination etc..,</t>
+  </si>
+  <si>
+    <t>floating-point printing</t>
+  </si>
+  <si>
+    <t>Overview of reverse engineering techniques, which alsocan be used to distill domain knowledge from legacy</t>
+  </si>
+  <si>
+    <t>Size annotations,schedule bound transmission of data</t>
+  </si>
+  <si>
+    <t>everse engineering anddesign recovery: A taxonomy.IEEE Software</t>
+  </si>
+  <si>
+    <t>ieeexplore.ieee.org/iel1/52/1647/00043044.pdf?arnumber=43044</t>
+  </si>
+  <si>
+    <t>syntactic and semantic differencing</t>
+  </si>
+  <si>
+    <t>Uses the term “application generators” to refer to DSLcompilers. Gives a compiler generator architecture di-agram. Describes relationships between roles of cus-tomers, domain engineers and system engineers. Listspros and cons of application generators. Describes“Stage”, an application-generator development tool.Describes a methodology for building an applicationgenerator.</t>
+  </si>
+  <si>
+    <t>VICE</t>
+  </si>
+  <si>
+    <t>introduced a reversible version rCL of Combinatory Logic where terms are enriched with a history part which allows us to uniquely replay every computational step</t>
+  </si>
+  <si>
+    <t>Building application generators.IEEESoftware</t>
+  </si>
+  <si>
+    <t>dl.acm.org/citation.cfm?id=624741</t>
+  </si>
+  <si>
+    <t>barrier elimination, private heaps, parallel and concurrent collection, cleanliness, concurrent programming, functional languages</t>
+  </si>
+  <si>
+    <t>Asoftware familyis a set of similar systems with possi-bly many different variations. Scope, commonality, andvariability (SCV) analysis gives software engineers asystematic way of thinking about and identifying theproduct family they are creating. The paper describes theFamily-Oriented Abstraction, Specification, and Trans-lation (FAST) approach, which has been used with im-mediate payoff in over 25 domains at Lucent Technolo-gies</t>
+  </si>
+  <si>
+    <t>self-representations and self-interpreters for other strongly normalizing languages</t>
+  </si>
+  <si>
+    <t>showed that for many problems studied inthe literatue are as hard as unique-II &amp; ambigious-II etc.., with respect to polynomial time or random polynomial time reducibilities </t>
+  </si>
+  <si>
+    <t>commonality and variability in software engineering. IEEE Software</t>
+  </si>
+  <si>
+    <t>https://www.computer.org/csdl/mags/so/1998/06/s6037.pdf</t>
+  </si>
+  <si>
+    <t>Temporal reasoning can be encoded as a program analysis problem</t>
+  </si>
+  <si>
+    <t>Gives a comprehensive discussion of a range of pro-gramming techniques that involve some sort of code gen-eration step, such as aspect-oriented, subject-oriented,and adaptive programming, composition filters, anddomain-specific languages. Chapter 3 of this book pro-vides a survey of domain-engineering methods</t>
+  </si>
+  <si>
+    <t>parallelization,pro-log system &amp; compiler</t>
+  </si>
+  <si>
+    <t>Fundamental Approaches to Software Engineering</t>
+  </si>
+  <si>
+    <t>www.cs.le.ac.uk/events/fase2008/</t>
+  </si>
+  <si>
+    <t>Describes a multi-media extension for Haskell and dis-cusses the merits of Haskell as basis for domain-specificextensions.</t>
+  </si>
+  <si>
+    <t>the idea behind Racket  and, most importantly, the rich support for buliding languages.</t>
+  </si>
+  <si>
+    <t>Domain-Specific Languages. USENIX Association</t>
+  </si>
+  <si>
+    <t>https://www.usenix.org/events/dsl99/</t>
+  </si>
+  <si>
+    <t>stochiastic version model of discrete dynamical systems</t>
+  </si>
+  <si>
+    <t>Statistical timing analysis offers a solution by accurately measuring the relationship between performance and yield</t>
+  </si>
+  <si>
+    <t>Formal modules, with checked and enforced interfaces,micromodules</t>
+  </si>
+  <si>
+    <t>Covers a query language to describe data-intensiveweb sites. Three programming tasks are distinguishedto build such sites:accessing and integrating thedata available in the site, building the site’s structure,and generating the HTML representation of the site.The solution proposed is a declarative query language(StruQL) to define the site’s content and structure, a tem-plate language to define the HTML representation andan extension of the query language with functions to de-scribe dynamic behaviour and to promote reusability ofqueries. Reengineering an existing AT&amp;T web site usingthis approach has resulted in less, more maintainable,code with more functionality. The initial learning curveof the new language is more than compensated for by theadvantages gained.</t>
+  </si>
+  <si>
+    <t>complexity analysis of interaction nets,Implicit computational complexity &amp; program analysis,concurrency &amp; scheduling,sized types &amp; amortized cost analysis</t>
+  </si>
+  <si>
+    <t>Special issue on domain-specific languages. IEEE Transactions on Software Engineering ,</t>
+  </si>
+  <si>
+    <t>ieeexplore.ieee.org/iel5/32/4444339/04444346.pdf?arnumber=4444346</t>
+  </si>
+  <si>
+    <t>optimizing compilers should engage programmers in a dialog</t>
+  </si>
+  <si>
+    <t>transitive closure to the shared heap, with the idea of minimizing the objects that are globalized,local collector design</t>
+  </si>
+  <si>
+    <t>derstanding techniques that can be used when searchingfor domain knowledge in legacy systems. </t>
+  </si>
+  <si>
+    <t> A pilot experiment of applying the proposed model, and the way to employ heuristics according to different situations for fault localization. </t>
+  </si>
+  <si>
+    <t>Framework that supports the analysis of arbitrary source language types; while the handling of polymorphic and existential types appears adequate, problems remain open in the treatment of recursive types in our source language.</t>
+  </si>
+  <si>
+    <t>An embedded modeling language approachto interactive 3D and multimedia animation</t>
+  </si>
+  <si>
+    <t>research.microsoft.com/apps/pubs/default.aspx?id=68722</t>
+  </si>
+  <si>
+    <t>extend a purely statistical timing model to the problem of computing clock skew schedules</t>
+  </si>
+  <si>
+    <t>Gives  a  comprehensive  discussion  of  a  range  of  pro-
+gramming techniques that involve some sort of code gen-
+eration step, such as aspect-oriented, subject-oriented,
+and  adaptive  programming,  composition  filters,  and
+domain-specific languages. Chapter 3 of this book pro-
+vides a survey of domain-engineering method</t>
   </si>
 </sst>
 </file>
@@ -569,12 +1017,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -596,18 +1045,28 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <i val="true"/>
@@ -615,6 +1074,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -622,6 +1082,22 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -666,49 +1142,61 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -728,22 +1216,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA65536"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="73.9132653061225"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="80.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="91.515306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="81.6989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="93"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="92.0714285714286"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="65.265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.6785714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.2397959183674"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.9081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="100.224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="95.7704081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="78.734693877551"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="14.4285714285714"/>
   </cols>
   <sheetData>
@@ -772,25 +1260,25 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -805,13 +1293,13 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -825,7 +1313,7 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -837,7 +1325,7 @@
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -854,7 +1342,7 @@
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -880,13 +1368,13 @@
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -897,7 +1385,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -909,13 +1397,13 @@
       <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -941,7 +1429,7 @@
       <c r="F7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -955,19 +1443,19 @@
       <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -981,10 +1469,10 @@
       <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="0"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1" t="s">
         <v>67</v>
       </c>
@@ -999,13 +1487,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="36.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1017,7 +1505,7 @@
       <c r="F10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1031,10 +1519,10 @@
       <c r="B11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1043,7 +1531,7 @@
       <c r="F11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1060,7 +1548,7 @@
       <c r="C12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1118,6 +1606,15 @@
       <c r="E14" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="F14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -1127,45 +1624,45 @@
         <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="8" t="s">
         <v>107</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>47</v>
@@ -1179,19 +1676,20 @@
         <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1199,51 +1697,51 @@
         <v>32</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>128</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>129</v>
+      <c r="F19" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="40.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1251,25 +1749,25 @@
         <v>56</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>134</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="G20" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1277,81 +1775,637 @@
         <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="F21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="H22" s="1" t="s">
         <v>151</v>
       </c>
+    </row>
+    <row r="23" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="36.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="36.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="33.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D41" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="36.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="40.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://delivery.acm.org/10.1145/2850000/2843895/p1-mckinley.pdf?ip=42.104.126.50&amp;id=2843895&amp;acc=OPENTOC&amp;key=4D4702B0C3E38B35%2E4D4702B0C3E38B35%2E4D4702B0C3E38B35%2E9F04A3A78F7D3B8D&amp;CFID=611356426&amp;CFTOKEN=71520877&amp;__acm__=1462526710_0617145c2d31dc7f34a0d932ce9b0a1a"/>
@@ -1363,7 +2417,9 @@
     <hyperlink ref="B11" r:id="rId7" display="http://www.cs.rochester.edu/u/rlavaee/packing-popl16.pdf"/>
     <hyperlink ref="B21" r:id="rId8" display="www.csa.iisc.ernet.in/TR/2014/3/paper.pdf"/>
     <hyperlink ref="A22" r:id="rId9" display="Uncertain&lt;T&gt;: A First-Order Type for Uncertain Data"/>
-    <hyperlink ref="B23" r:id="rId10" display="http://research.microsoft.com/infernet"/>
+    <hyperlink ref="B23" r:id="rId10" display="http://research.microsoft.com/infernet."/>
+    <hyperlink ref="B26" r:id="rId11" display="http://people.csail.mit.edu/rishabh/papers/popl16-semantic.pdf"/>
+    <hyperlink ref="B31" r:id="rId12" display="ftp.math.utah.edu/pub/tex/bib/toc/sigplan1980.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
